--- a/tietokanta/character_creation/excel/proficiencies.xlsx
+++ b/tietokanta/character_creation/excel/proficiencies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B4BFD8D-9001-4806-9FB6-12951242B7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F12F23-A4B1-4B41-AE50-88E8C7A53817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="1140" windowWidth="19665" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -29,11 +29,14 @@
   <connection id="1" xr16:uid="{BC5D41FC-ED24-4FCC-B07C-9791B53998FD}" name="proficiencies_schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\proficiencies_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="2" xr16:uid="{26B82A71-8DEF-494E-A2E0-F2EAB036E121}" name="proficiencies_schema1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\schemas\proficiencies_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="82">
   <si>
     <t>Intelligence</t>
   </si>
@@ -215,9 +218,6 @@
     <t>Dexterity</t>
   </si>
   <si>
-    <t>Stealth|Trained</t>
-  </si>
-  <si>
     <t>7+Int|Trained</t>
   </si>
   <si>
@@ -230,9 +230,6 @@
     <t>Wizard</t>
   </si>
   <si>
-    <t>Arcana|Trained</t>
-  </si>
-  <si>
     <t>Bloodline|Trained</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>Defense4</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -339,7 +339,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="proficiencies">
         <xsd:complexType>
@@ -347,27 +347,27 @@
             <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="proficiency" form="unqualified">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Class" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="InitialBoost" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="HP" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="FortitudeSave" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ReflexSave" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="WillSave" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Skill1" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Skill2" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Skill3" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Languages" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Attack1" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Attack2" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Attack3" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Attack4" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="AttackSpecial" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Defense1" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Defense2" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Defense3" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Defense4" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ClassDC" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SpellDC" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="class" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="initialBoost" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="hp" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="fortitudeSave" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="reflexSave" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="willSave" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skill1" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skill2" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skill3" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="languages" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="attack1" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="attack2" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="attack3" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="attack4" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="attackSpecial" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="defense1" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="defense2" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="defense3" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="defense4" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="classDC" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="spellDC" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -376,78 +376,78 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="1" Name="proficiencies-määritys" RootElement="proficiencies" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  <Map ID="2" Name="proficiencies-määritys" RootElement="proficiencies" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DECE1988-D397-4842-9CDE-1FE5125F6F8A}" name="Taulukko2" displayName="Taulukko2" ref="A1:U13" tableType="xml" totalsRowShown="0" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DECE1988-D397-4842-9CDE-1FE5125F6F8A}" name="Taulukko2" displayName="Taulukko2" ref="A1:U13" tableType="xml" totalsRowShown="0" connectionId="2">
   <autoFilter ref="A1:U13" xr:uid="{2D3E0A99-98EF-4A60-A23A-12A299219193}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{1A0C3CD9-B84D-4933-935C-EDB4372F6D36}" uniqueName="Class" name="Class">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/Class" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{11329133-1197-445C-A345-A45AF3ACCAAF}" uniqueName="InitialBoost" name="InitialBoost">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/InitialBoost" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{AA2884F1-71C1-4A9D-86D8-664372E22BA0}" uniqueName="HP" name="HP">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/HP" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{651A8702-7E9A-4502-9B8C-D4FE0956B947}" uniqueName="FortitudeSave" name="FortitudeSave">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/FortitudeSave" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{B9DEF593-3B09-4562-AAAB-C6E0DA1F7C47}" uniqueName="ReflexSave" name="ReflexSave">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/ReflexSave" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{A9E0E763-AA55-4EA4-A569-F727E940C60E}" uniqueName="WillSave" name="WillSave">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/WillSave" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{E4D13E7D-EC2A-49CC-94E1-70AE3E2F0C74}" uniqueName="Skill1" name="Skill1">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/Skill1" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{2412B692-E274-48C8-A6E6-3571A5DBB7A0}" uniqueName="Skill2" name="Skill2">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/Skill2" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{2EADAFEF-1E65-49B3-8D35-73DB1804174E}" uniqueName="Skill3" name="Skill3">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/Skill3" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{7391C78D-A678-4DF7-BC6F-CA5C2C3E8497}" uniqueName="Languages" name="Languages">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/Languages" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{09C9581D-32F7-40F5-BDAC-B122C7EAE461}" uniqueName="Attack1" name="Attack1">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/Attack1" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{3A973304-E47C-48C4-BC58-6D05F5720516}" uniqueName="Attack2" name="Attack2">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/Attack2" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{3864E70A-CE1D-42C9-934D-D49E5FBCC0E7}" uniqueName="Attack3" name="Attack3">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/Attack3" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{EA06F731-473C-4BAC-9964-2AFD782F6BDC}" uniqueName="Attack4" name="Attack4">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/Attack4" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{D869F356-29F0-4DE5-A85A-67662705BA3B}" uniqueName="AttackSpecial" name="AttackSpecial">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/AttackSpecial" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="16" xr3:uid="{AAB7633F-2129-463F-842F-50E16EE4FF2C}" uniqueName="Defense1" name="Defense1">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/Defense1" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="17" xr3:uid="{992FAF43-3D82-48A5-A222-861B9270758B}" uniqueName="Defense2" name="Defense2">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/Defense2" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="18" xr3:uid="{4F1AF5E6-6286-4505-85CF-C481DBE30DC0}" uniqueName="Defense3" name="Defense3">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/Defense3" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="19" xr3:uid="{BDCD2B19-7891-4F91-9220-ED651721D642}" uniqueName="Defense4" name="Defense4">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/Defense4" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="20" xr3:uid="{77A4902A-DF6C-4E35-90B4-AAE75D9BD396}" uniqueName="ClassDC" name="ClassDC">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/ClassDC" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="21" xr3:uid="{6B0101FA-D557-46BD-8FD3-75164257E540}" uniqueName="SpellDC" name="SpellDC">
-      <xmlColumnPr mapId="1" xpath="/proficiencies/proficiency/SpellDC" xmlDataType="string"/>
+    <tableColumn id="1" xr3:uid="{1A0C3CD9-B84D-4933-935C-EDB4372F6D36}" uniqueName="class" name="Class">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/class" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{11329133-1197-445C-A345-A45AF3ACCAAF}" uniqueName="initialBoost" name="InitialBoost">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/initialBoost" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{AA2884F1-71C1-4A9D-86D8-664372E22BA0}" uniqueName="hp" name="HP">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/hp" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{651A8702-7E9A-4502-9B8C-D4FE0956B947}" uniqueName="fortitudeSave" name="FortitudeSave">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/fortitudeSave" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B9DEF593-3B09-4562-AAAB-C6E0DA1F7C47}" uniqueName="reflexSave" name="ReflexSave">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/reflexSave" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A9E0E763-AA55-4EA4-A569-F727E940C60E}" uniqueName="willSave" name="WillSave">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/willSave" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{E4D13E7D-EC2A-49CC-94E1-70AE3E2F0C74}" uniqueName="skill1" name="Skill1">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/skill1" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{2412B692-E274-48C8-A6E6-3571A5DBB7A0}" uniqueName="skill2" name="Skill2">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/skill2" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{2EADAFEF-1E65-49B3-8D35-73DB1804174E}" uniqueName="skill3" name="Skill3">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/skill3" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{7391C78D-A678-4DF7-BC6F-CA5C2C3E8497}" uniqueName="languages" name="Languages">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/languages" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{09C9581D-32F7-40F5-BDAC-B122C7EAE461}" uniqueName="attack1" name="Attack1">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/attack1" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{3A973304-E47C-48C4-BC58-6D05F5720516}" uniqueName="attack2" name="Attack2">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/attack2" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{3864E70A-CE1D-42C9-934D-D49E5FBCC0E7}" uniqueName="attack3" name="Attack3">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/attack3" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{EA06F731-473C-4BAC-9964-2AFD782F6BDC}" uniqueName="attack4" name="Attack4">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/attack4" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{D869F356-29F0-4DE5-A85A-67662705BA3B}" uniqueName="attackSpecial" name="AttackSpecial">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/attackSpecial" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{AAB7633F-2129-463F-842F-50E16EE4FF2C}" uniqueName="defense1" name="Defense1">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/defense1" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{992FAF43-3D82-48A5-A222-861B9270758B}" uniqueName="defense2" name="Defense2">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/defense2" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{4F1AF5E6-6286-4505-85CF-C481DBE30DC0}" uniqueName="defense3" name="Defense3">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/defense3" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{BDCD2B19-7891-4F91-9220-ED651721D642}" uniqueName="defense4" name="Defense4">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/defense4" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{77A4902A-DF6C-4E35-90B4-AAE75D9BD396}" uniqueName="classDC" name="ClassDC">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/classDC" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{6B0101FA-D557-46BD-8FD3-75164257E540}" uniqueName="spellDC" name="SpellDC">
+      <xmlColumnPr mapId="2" xpath="/proficiencies/proficiency/spellDC" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,58 +734,58 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
-        <v>73</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" t="s">
         <v>74</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>75</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>76</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>77</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>78</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>80</v>
-      </c>
-      <c r="R1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" t="s">
-        <v>82</v>
       </c>
       <c r="T1" t="s">
         <v>17</v>
@@ -819,7 +819,9 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,8 +831,12 @@
       <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O2" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +846,12 @@
       <c r="Q2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T2" s="1" t="s">
         <v>13</v>
       </c>
@@ -874,7 +884,9 @@
       <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +899,12 @@
       <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="P3" s="1" t="s">
         <v>11</v>
       </c>
@@ -898,11 +914,15 @@
       <c r="R3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="1"/>
+      <c r="U3" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -941,8 +961,12 @@
       <c r="L4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O4" s="1" t="s">
         <v>42</v>
       </c>
@@ -952,8 +976,12 @@
       <c r="Q4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1001,8 +1029,12 @@
       <c r="M5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="P5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1059,15 +1091,27 @@
       <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="P6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1112,9 +1156,15 @@
       <c r="L7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="P7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1124,7 +1174,9 @@
       <c r="R7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1157,7 +1209,9 @@
       <c r="H8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1173,7 +1227,9 @@
       <c r="N8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1189,7 +1245,9 @@
       <c r="T8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="1"/>
+      <c r="U8" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1213,8 +1271,12 @@
       <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1224,19 +1286,33 @@
       <c r="L9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="P9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1278,8 +1354,12 @@
       <c r="M10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,11 +1369,15 @@
       <c r="R10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1318,11 +1402,13 @@
         <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>9</v>
@@ -1330,31 +1416,43 @@
       <c r="L11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="P11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="R11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>30</v>
@@ -1368,9 +1466,11 @@
       <c r="G12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>41</v>
@@ -1381,15 +1481,27 @@
       <c r="L12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="P12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="Q12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1399,13 +1511,13 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>30</v>
@@ -1420,27 +1532,41 @@
         <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="O13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="T13" s="1" t="s">
         <v>13</v>
       </c>
